--- a/public/公司风险研判签到表模板-签字.xlsx
+++ b/public/公司风险研判签到表模板-签字.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1166,7 +1166,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1325,7 +1325,7 @@
   <pageMargins left="0.665277777777778" right="0.751388888888889" top="1" bottom="0.574305555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;12附件1&amp;C&amp;16&amp;B现场作业风险研判参会人员签到表</oddHeader>
+    <oddHeader>&amp;L&amp;12附件1&amp;C&amp;16&amp;B风险研判参会人员签到表</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
